--- a/XLS_catalog_pairwise.xlsx
+++ b/XLS_catalog_pairwise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/Projects/testtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330727B-5FEF-0B4E-B111-0F1BBC205869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB505BE-F17D-5246-B3B8-64E7354A143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="3340" windowWidth="28860" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="9220" windowWidth="28860" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t>enabled</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>кг</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>kz</t>
+  </si>
+  <si>
+    <t>Диагональ, дюйм</t>
   </si>
 </sst>
 </file>
@@ -102,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -179,8 +194,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -400,10 +415,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -412,505 +427,593 @@
     <col min="8" max="8" width="17.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>123456789012</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>200</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>987654321098</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>50</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="N3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>300</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>987654321098</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5">
+      <c r="N4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5">
+      <c r="D5" s="2"/>
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>123456789012</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6"/>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>987654321098</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>100</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>300</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>123456789012</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="N7" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>300</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>987654321098</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>100</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9">
+      <c r="N8" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9"/>
+      <c r="I9" s="8">
         <v>987654321098</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>50</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="N9" s="9">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>100</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>200</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>987654321098</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>50</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="N11" s="9">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>300</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>123456789012</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13">
+      <c r="N12" s="9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>123456789012</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>50</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>200</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>987654321098</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>100</v>
       </c>
-      <c r="K14">
-        <v>1</v>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/XLS_catalog_pairwise.xlsx
+++ b/XLS_catalog_pairwise.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/Projects/testtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB505BE-F17D-5246-B3B8-64E7354A143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B535F-FECE-B246-9F0C-8FADB1E996CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="9220" windowWidth="28860" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6380" windowWidth="30220" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Help" sheetId="2" r:id="rId1"/>
+    <sheet name="Catalog" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>enabled</t>
   </si>
@@ -110,6 +111,54 @@
   </si>
   <si>
     <t>Диагональ, дюйм</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>- этот язык для названий пользовательских атрибутов в первой строке и названий категорий</t>
+  </si>
+  <si>
+    <t>Правила работы с файлом</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Если в клонке A на странице "Catalog" не задан язык, то к значению применяется основной язык магазина</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Язык импортируемого документа и значения атрибута товара указывается в формате ISO 639-3 (3 символа)</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Колонки B, C, D, E являются обязательными для заполнения</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Указать название категорий можно только в одном языке, который определен в ячейке A1 на странице "Help"</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>В списочных атрибутах используйте ";" для разделеня значений</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>В колонке M и далее вы можете указать тип системного атрибута или название пользовательского атрибута</t>
+  </si>
+  <si>
+    <t>category_1</t>
   </si>
 </sst>
 </file>
@@ -119,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +208,26 @@
       <color rgb="FF0E0E0E"/>
       <name val=".SF NS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +266,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,14 +483,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCE53E5-7FD8-0244-BB86-B5308355FFD6}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" ht="14">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14">
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{E5F8E827-520D-EE4A-9DF6-65FFD4C3E690}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -427,7 +584,7 @@
     <col min="8" max="8" width="17.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -443,35 +600,38 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -487,35 +647,35 @@
       <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>123456789012</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -531,35 +691,35 @@
       <c r="E3" s="2">
         <v>200</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>987654321098</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
@@ -573,35 +733,35 @@
       <c r="E4">
         <v>300</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>987654321098</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>100</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>10</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>6.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -615,35 +775,35 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>123456789012</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -657,35 +817,35 @@
         <v>15</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>987654321098</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -701,33 +861,33 @@
       <c r="E7">
         <v>300</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>123456789012</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -743,32 +903,33 @@
       <c r="E8">
         <v>300</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8"/>
+      <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>987654321098</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>100</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>10</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -784,33 +945,32 @@
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9"/>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>987654321098</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>11.6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -826,33 +986,33 @@
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9">
         <v>7.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -868,32 +1028,32 @@
       <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>987654321098</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>10</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>6.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -909,32 +1069,32 @@
       <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>123456789012</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>10</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>5.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
@@ -950,32 +1110,32 @@
       <c r="E13">
         <v>100</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>123456789012</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>50</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9">
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
@@ -991,28 +1151,28 @@
       <c r="E14">
         <v>200</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>987654321098</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>100</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="9">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>

--- a/XLS_catalog_pairwise.xlsx
+++ b/XLS_catalog_pairwise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/Projects/testtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B535F-FECE-B246-9F0C-8FADB1E996CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5422D8-D948-D549-81D0-CD3D9B3B2991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6380" windowWidth="30220" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>enabled</t>
   </si>
@@ -35,9 +35,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -159,6 +156,51 @@
   </si>
   <si>
     <t>category_1</t>
+  </si>
+  <si>
+    <t>category01</t>
+  </si>
+  <si>
+    <t>category02</t>
+  </si>
+  <si>
+    <t>category03</t>
+  </si>
+  <si>
+    <t>category04</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+  <si>
+    <t>Product D</t>
+  </si>
+  <si>
+    <t>Product E</t>
+  </si>
+  <si>
+    <t>SKU004</t>
+  </si>
+  <si>
+    <t>SKU005</t>
+  </si>
+  <si>
+    <t>SKU006</t>
+  </si>
+  <si>
+    <t>SKU007</t>
+  </si>
+  <si>
+    <t>SKU008</t>
+  </si>
+  <si>
+    <t>SKU009</t>
+  </si>
+  <si>
+    <t>SKU010</t>
   </si>
 </sst>
 </file>
@@ -497,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14">
       <c r="A1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
@@ -508,55 +550,55 @@
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14">
       <c r="A6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14">
       <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14">
       <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -575,18 +617,19 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="12.6640625" style="6"/>
     <col min="8" max="8" width="17.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -601,66 +644,69 @@
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="8">
         <v>123456789012</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -677,34 +723,37 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>200</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="8">
-        <v>987654321098</v>
+        <v>123456789013</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>50</v>
@@ -721,32 +770,35 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>300</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="8">
-        <v>987654321098</v>
+        <v>123456789014</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -763,32 +815,35 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5">
         <v>100</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="8">
-        <v>123456789012</v>
+        <v>123456789015</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>50</v>
@@ -805,32 +860,35 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E6"/>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="8">
-        <v>987654321098</v>
+        <v>123456789016</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -847,32 +905,35 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>300</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J7" s="8">
-        <v>123456789012</v>
+        <v>123456789017</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -889,32 +950,35 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>300</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8"/>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="8">
-        <v>987654321098</v>
+        <v>123456789018</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -931,31 +995,34 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="8">
-        <v>987654321098</v>
+        <v>123456789019</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9">
         <v>50</v>
@@ -972,32 +1039,35 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1014,31 +1084,34 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="8">
-        <v>987654321098</v>
+        <v>123456789020</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -1055,34 +1128,37 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>300</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="8">
-        <v>123456789012</v>
+        <v>123456789021</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1096,34 +1172,37 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="8">
+        <v>123456789022</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="J13" s="8">
-        <v>123456789012</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -1137,34 +1216,37 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>200</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="8">
-        <v>987654321098</v>
+        <v>123456789023</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14">
         <v>100</v>
